--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_1.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_7</t>
+          <t>model_22_1_16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997519553410593</v>
+        <v>0.9999482471133494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994971503977473</v>
+        <v>0.9991832399964109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.997667810489932</v>
+        <v>0.9996670059440771</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994031177185332</v>
+        <v>0.9999046540471723</v>
       </c>
       <c r="F2" t="n">
-        <v>0.998765735527967</v>
+        <v>0.99992141541715</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000231538801219001</v>
+        <v>4.830904799915977e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004693880311563766</v>
+        <v>0.000762409611729811</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001095031630640809</v>
+        <v>8.626074818265238e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002160484823150483</v>
+        <v>7.547889786194041e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006555400564779286</v>
+        <v>8.087228055804108e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001183142453020366</v>
+        <v>0.0007530056308113534</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01521639908845062</v>
+        <v>0.006950471063112181</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000350180694975</v>
+        <v>1.000073062898801</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01586419269993444</v>
+        <v>0.007246367005727449</v>
       </c>
       <c r="P2" t="n">
-        <v>98.74152618125032</v>
+        <v>101.875783371349</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.7154350008466</v>
+        <v>151.8496921909453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_6</t>
+          <t>model_22_1_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997532360431892</v>
+        <v>0.99995361601163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9994968899770243</v>
+        <v>0.9991831917757137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9977266051508428</v>
+        <v>0.9996794216932402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994211739540282</v>
+        <v>0.9999065245101861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9987978766807994</v>
+        <v>0.9999236998553817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002303433219970714</v>
+        <v>4.329741712156091e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004696311224700903</v>
+        <v>0.0007624546236340433</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00106742580652914</v>
+        <v>8.304449914453525e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002095128179200186</v>
+        <v>7.399817967107791e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006384693122245791</v>
+        <v>7.852133940780659e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001219386644718395</v>
+        <v>0.0007070918553814124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01517706565832379</v>
+        <v>0.006580077288418496</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000348372644909</v>
+        <v>1.000065483277699</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01582318476425569</v>
+        <v>0.00686020480122424</v>
       </c>
       <c r="P3" t="n">
-        <v>98.75187931536335</v>
+        <v>102.0948351510145</v>
       </c>
       <c r="Q3" t="n">
-        <v>148.7257881349596</v>
+        <v>152.0687439706108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_8</t>
+          <t>model_22_1_18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997506481370421</v>
+        <v>0.9999578849868045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994961990115866</v>
+        <v>0.999182562250832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9976167938470279</v>
+        <v>0.9996888813746228</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993869817832574</v>
+        <v>0.9999076543020228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987376867647362</v>
+        <v>0.9999253249813996</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002327590187894678</v>
+        <v>3.931251618257117e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004702761083764113</v>
+        <v>0.0007630422574780676</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001118985446326846</v>
+        <v>8.059400737414701e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002218890717165592</v>
+        <v>7.310380041204323e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0006704372590217024</v>
+        <v>7.684890389309512e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001149940486181372</v>
+        <v>0.0006657246276725093</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01525644187841542</v>
+        <v>0.006269969392474828</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00035202615947</v>
+        <v>1.000059456489217</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01590594019436804</v>
+        <v>0.006536894970138409</v>
       </c>
       <c r="P4" t="n">
-        <v>98.73101378746176</v>
+        <v>102.2879352237287</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.704922607058</v>
+        <v>152.261844043325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_9</t>
+          <t>model_22_1_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999749413161477</v>
+        <v>0.9999415098490103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999494631012905</v>
+        <v>0.9991825354823852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9975724971364606</v>
+        <v>0.9996508522038871</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993732042570743</v>
+        <v>0.9999017613611513</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9987134119837285</v>
+        <v>0.999918272128412</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002339118142702504</v>
+        <v>5.459798852794378e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004717397663184449</v>
+        <v>0.000763067244648144</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001139784055957523</v>
+        <v>9.044530850723878e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002268760075233474</v>
+        <v>7.776884039494632e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0006833300317404355</v>
+        <v>8.410707445109255e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001118830820554511</v>
+        <v>0.0008039702829722492</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0152941758284077</v>
+        <v>0.007389045170246544</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000353769654385</v>
+        <v>1.000082574330809</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01594528055673154</v>
+        <v>0.007703612120576082</v>
       </c>
       <c r="P5" t="n">
-        <v>98.72113275145978</v>
+        <v>101.6310270320792</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.695041571056</v>
+        <v>151.6049358516754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_5</t>
+          <t>model_22_1_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997546927793515</v>
+        <v>0.9999612659083033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9994945287339492</v>
+        <v>0.9991814959447969</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9977973876143432</v>
+        <v>0.9996959327906789</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994426602723859</v>
+        <v>0.9999081959863385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9988364854969549</v>
+        <v>0.9999264208080214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002289835227328785</v>
+        <v>3.61565743688319e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0004718352392341748</v>
+        <v>0.0007640376073565108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001034191356201183</v>
+        <v>7.876736688631052e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002017355951478206</v>
+        <v>7.267498582761326e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000617963475674502</v>
+        <v>7.572117635696189e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001258633195235734</v>
+        <v>0.0006284943185688931</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01513220151639802</v>
+        <v>0.006013033707608157</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00034631607621</v>
+        <v>1.000054683423572</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01577641066292656</v>
+        <v>0.006269021001236773</v>
       </c>
       <c r="P6" t="n">
-        <v>98.76372102026065</v>
+        <v>102.4553035246064</v>
       </c>
       <c r="Q6" t="n">
-        <v>148.7376298398569</v>
+        <v>152.4292123442026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_10</t>
+          <t>model_22_1_14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997484737114201</v>
+        <v>0.999933064674823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9994924822064655</v>
+        <v>0.9991808361700728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9975359815451738</v>
+        <v>0.9996295382811385</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993622469569774</v>
+        <v>0.9998976391161015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9986935376168877</v>
+        <v>0.9999140040840447</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002347887496613121</v>
+        <v>6.248118793149238e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0004737455828080158</v>
+        <v>0.0007646534781005886</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001156929201023127</v>
+        <v>9.596659301754887e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002308421297047641</v>
+        <v>8.103214107882247e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006938856653639456</v>
+        <v>8.849936704818568e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001093857372069637</v>
+        <v>0.0008633115172607475</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01532281794127021</v>
+        <v>0.007904504281198941</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000355095936819</v>
+        <v>1.000094496929662</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01597514202363595</v>
+        <v>0.008241015393029179</v>
       </c>
       <c r="P7" t="n">
-        <v>98.71364877143654</v>
+        <v>101.3612900792511</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.6875575910328</v>
+        <v>151.3351988988474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_4</t>
+          <t>model_22_1_20</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997556347084319</v>
+        <v>0.999963933613129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9994901199014823</v>
+        <v>0.9991802225830668</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9978777686666095</v>
+        <v>0.9997009851497198</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994640568863425</v>
+        <v>0.9999083244722439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9988793065132112</v>
+        <v>0.999927106111212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002281042732822122</v>
+        <v>3.366638901270669e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0004759506908166501</v>
+        <v>0.0007652262346373497</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009964500858816894</v>
+        <v>7.745857394182626e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001939908419267377</v>
+        <v>7.257327228616784e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0005952204639042136</v>
+        <v>7.501592311399705e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001303214592077676</v>
+        <v>0.0005949406583338617</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01510312130925962</v>
+        <v>0.005802274468922225</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000344986293979</v>
+        <v>1.000050917252053</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01574609245116595</v>
+        <v>0.006049289305428212</v>
       </c>
       <c r="P8" t="n">
-        <v>98.7714153892007</v>
+        <v>102.5980211539449</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.7453242087969</v>
+        <v>152.5719299735412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_11</t>
+          <t>model_22_1_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999747841192526</v>
+        <v>0.9999660361513464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9994899878228181</v>
+        <v>0.9991787369674546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9975067899564349</v>
+        <v>0.999704682099542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999353586276451</v>
+        <v>0.9999081339720385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986776831882718</v>
+        <v>0.9999274981357225</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002353791782845325</v>
+        <v>3.170376187747244e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0004760739804521633</v>
+        <v>0.0007666129916003613</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001170635511286353</v>
+        <v>7.650089421156416e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002339769637275626</v>
+        <v>7.272407832583137e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0007023062375069578</v>
+        <v>7.461248626869776e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001073763526100972</v>
+        <v>0.0005647272822721591</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01534207216397226</v>
+        <v>0.005630609369994729</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000355988904669</v>
+        <v>1.000047948962805</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01599521593846017</v>
+        <v>0.00587031606784363</v>
       </c>
       <c r="P9" t="n">
-        <v>98.70862563907474</v>
+        <v>102.7181504258165</v>
       </c>
       <c r="Q9" t="n">
-        <v>148.682534458671</v>
+        <v>152.6920592454128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_12</t>
+          <t>model_22_1_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997473966856348</v>
+        <v>0.9999224940487472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9994873118844588</v>
+        <v>0.9991777911655334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9974830577285952</v>
+        <v>0.9996023643436404</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993464881865195</v>
+        <v>0.9998918266143133</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986647743655231</v>
+        <v>0.9999083483986783</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002357941059558988</v>
+        <v>7.234840337635979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0004785718514503527</v>
+        <v>0.0007674958561778697</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001181778490893235</v>
+        <v>0.0001030058903802877</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002365461999147325</v>
+        <v>8.563350291730673e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0007091623454039836</v>
+        <v>9.431969664879719e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001054663360270092</v>
+        <v>0.0009341691284266939</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01535558875315104</v>
+        <v>0.008505786464305332</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00035661644381</v>
+        <v>1.000109420166474</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01600930795682349</v>
+        <v>0.008867895403496119</v>
       </c>
       <c r="P10" t="n">
-        <v>98.7051031322391</v>
+        <v>101.0680343463667</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.6790119518353</v>
+        <v>151.0419431659629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_13</t>
+          <t>model_22_1_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997471848202495</v>
+        <v>0.9999676848130129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9994844987296215</v>
+        <v>0.999177159732033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9974644874835255</v>
+        <v>0.9997072084008737</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993412134257149</v>
+        <v>0.9999077245095609</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9986547685494039</v>
+        <v>0.9999276586064483</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002359918729932487</v>
+        <v>3.016480857968768e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004811978080077107</v>
+        <v>0.0007680852716338088</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001190497767629697</v>
+        <v>7.58464661845922e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002384554609228142</v>
+        <v>7.304822188521534e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007144766142762555</v>
+        <v>7.444734403490377e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001036255727533683</v>
+        <v>0.000537520354159421</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01536202698192035</v>
+        <v>0.005492249865008663</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000356915547883</v>
+        <v>1.000045621440452</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01601602027432047</v>
+        <v>0.005726066312286646</v>
       </c>
       <c r="P11" t="n">
-        <v>98.7034263800018</v>
+        <v>102.817669183734</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.677335199598</v>
+        <v>152.7915780033302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_3</t>
+          <t>model_22_1_23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9997558065933289</v>
+        <v>0.9999689707337122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999482685830366</v>
+        <v>0.9991755235574833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.997969633243654</v>
+        <v>0.9997088563522103</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994845744046927</v>
+        <v>0.9999071473474831</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9989269039202388</v>
+        <v>0.9999276440284041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002279438262758033</v>
+        <v>2.896445805234826e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0004828900698856224</v>
+        <v>0.000769612568756238</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009533169626235418</v>
+        <v>7.541957113126807e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001865642875825002</v>
+        <v>7.350512179786686e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0005699406251030209</v>
+        <v>7.446234646456746e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001354323683186823</v>
+        <v>0.0005129932560519602</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01509780865807364</v>
+        <v>0.005381863808416956</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000344743632948</v>
+        <v>1.000043806022995</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01574055362942027</v>
+        <v>0.005610980892735193</v>
       </c>
       <c r="P12" t="n">
-        <v>98.77282267069739</v>
+        <v>102.8988821280447</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.7467314902936</v>
+        <v>152.8727909476409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_14</t>
+          <t>model_22_1_24</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9997471495103277</v>
+        <v>0.9999699659134764</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9994816311723842</v>
+        <v>0.9991738741664418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9974502282870721</v>
+        <v>0.9997098235874984</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9993371760639087</v>
+        <v>0.9999064664700579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998647089951786</v>
+        <v>0.99992750388518</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002360248332552775</v>
+        <v>2.80355014257442e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0004838745468176033</v>
+        <v>0.0007711522028935468</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001197192880130883</v>
+        <v>7.516901278604081e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002399168309749562</v>
+        <v>7.404412608814865e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007185548555529192</v>
+        <v>7.460656943709472e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00101869563757436</v>
+        <v>0.0004909474579499573</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01536309972809125</v>
+        <v>0.005294856128899462</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000356965397184</v>
+        <v>1.000042401063327</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01601713868951676</v>
+        <v>0.005520269116169913</v>
       </c>
       <c r="P13" t="n">
-        <v>98.70314706563308</v>
+        <v>102.9640778856868</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.6770558852293</v>
+        <v>152.9379867052831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_15</t>
+          <t>model_22_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997472674403617</v>
+        <v>0.9999093205105501</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9994787666203593</v>
+        <v>0.9991728846930112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.997439812901611</v>
+        <v>0.9995679858105618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9993342699860407</v>
+        <v>0.9998839178859693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9986414958851614</v>
+        <v>0.9999009797008794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002359147507451733</v>
+        <v>8.464532303190423e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0004865484803935602</v>
+        <v>0.000772075832908064</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001202083210215948</v>
+        <v>0.000111911508760023</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002409687196510871</v>
+        <v>9.189430456851796e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007215259649335177</v>
+        <v>0.0001019029066642705</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001002076161134578</v>
+        <v>0.001012717265822837</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01535951661821339</v>
+        <v>0.009200289290663867</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000356798907725</v>
+        <v>1.000128018102753</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01601340303923334</v>
+        <v>0.00959196465299178</v>
       </c>
       <c r="P14" t="n">
-        <v>98.70408008770482</v>
+        <v>100.7540814031366</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.6779889073011</v>
+        <v>150.7279902227328</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_16</t>
+          <t>model_22_1_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9997474725150137</v>
+        <v>0.9998929410061591</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9994759605041638</v>
+        <v>0.9991655731668529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9974320428293945</v>
+        <v>0.9995249336454142</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9993323917215396</v>
+        <v>0.999873383944045</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9986374213316149</v>
+        <v>0.9998915096405673</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002357233225592209</v>
+        <v>9.993487140380615e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0004891678666877767</v>
+        <v>0.0007789008216379483</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001205731487859214</v>
+        <v>0.0001230639960506279</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002416485793276985</v>
+        <v>0.0001002333090360255</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0007236900335934562</v>
+        <v>0.0001116486525433267</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009864686529195239</v>
+        <v>0.001099693630671722</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01535328377120741</v>
+        <v>0.009996743039800821</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000356509390569</v>
+        <v>1.000151142108952</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01600690484702655</v>
+        <v>0.01042232508711604</v>
       </c>
       <c r="P15" t="n">
-        <v>98.70570360545963</v>
+        <v>100.4219837402339</v>
       </c>
       <c r="Q15" t="n">
-        <v>148.6796124250559</v>
+        <v>150.3958925598301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_17</t>
+          <t>model_22_1_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9997477472707282</v>
+        <v>0.9998725366808294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9994732538107591</v>
+        <v>0.9991553979627735</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9974267472975298</v>
+        <v>0.9994701614877324</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9993309994395371</v>
+        <v>0.9998594559704206</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9986346067366003</v>
+        <v>0.9998792591035407</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002354668501601154</v>
+        <v>0.0001189814134526592</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0004916944461709363</v>
+        <v>0.0007883989280062103</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001208217895961109</v>
+        <v>0.0001372524994703299</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002421525319879376</v>
+        <v>0.000111259137269373</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007251849156196743</v>
+        <v>0.0001242558183698514</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0009719497496872162</v>
+        <v>0.001196322231605071</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01534492913506333</v>
+        <v>0.01090786016836754</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000356121500148</v>
+        <v>1.0001799482153</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01599819453672533</v>
+        <v>0.01137223035811832</v>
       </c>
       <c r="P16" t="n">
-        <v>98.70788083613449</v>
+        <v>100.0730865330501</v>
       </c>
       <c r="Q16" t="n">
-        <v>148.6817896557307</v>
+        <v>150.0469953526463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_2</t>
+          <t>model_22_1_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997545137074857</v>
+        <v>0.9998471773387479</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9994713839100555</v>
+        <v>0.9991414487461246</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9980703790307435</v>
+        <v>0.9994013299879155</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995009845300264</v>
+        <v>0.9998412255247442</v>
       </c>
       <c r="F17" t="n">
-        <v>0.998977027386436</v>
+        <v>0.9998635842579152</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002291506784592824</v>
+        <v>0.0001426532461392155</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000493439916398529</v>
+        <v>0.000801419909448182</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0009060138498016197</v>
+        <v>0.0001550830179649743</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001806244519012741</v>
+        <v>0.0001256909396309077</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0005433191508514469</v>
+        <v>0.000140386978797941</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001418642483646601</v>
+        <v>0.001303561187821551</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01513772368816667</v>
+        <v>0.01194375343596876</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00034656888355</v>
+        <v>1.000215749639415</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01578216792497987</v>
+        <v>0.01245222374671599</v>
       </c>
       <c r="P17" t="n">
-        <v>98.7622615724972</v>
+        <v>99.71018744918602</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.7361703920934</v>
+        <v>149.6840962687823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_18</t>
+          <t>model_22_1_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9997480604041219</v>
+        <v>0.9998157143200697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.99947071728857</v>
+        <v>0.9991225338189775</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9974233453837176</v>
+        <v>0.9993154847118082</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993299491145825</v>
+        <v>0.9998176116438244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9986327445583405</v>
+        <v>0.9998436975022608</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002351745538820545</v>
+        <v>0.0001720225930084925</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0004940621782940128</v>
+        <v>0.0008190761636706527</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001209815194642432</v>
+        <v>0.000177320885618297</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002425327093184315</v>
+        <v>0.0001443844410665723</v>
       </c>
       <c r="K18" t="n">
-        <v>0.000726173951980432</v>
+        <v>0.0001608526633424346</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0009584758568386518</v>
+        <v>0.001426841205743193</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01533540197980002</v>
+        <v>0.01311573837069391</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000355679429475</v>
+        <v>1.000260168018725</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01598826179073853</v>
+        <v>0.01367410250645566</v>
       </c>
       <c r="P18" t="n">
-        <v>98.71036507413933</v>
+        <v>99.33576947015311</v>
       </c>
       <c r="Q18" t="n">
-        <v>148.6842738937356</v>
+        <v>149.3096782897493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_19</t>
+          <t>model_22_1_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997483924601309</v>
+        <v>0.9997767351204475</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9994682809377339</v>
+        <v>0.9990975439925407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9974212123037772</v>
+        <v>0.9992082141863491</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9993293703024666</v>
+        <v>0.9997872508513577</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9986316044617504</v>
+        <v>0.999818519193668</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002348645941732514</v>
+        <v>0.0002084079648666675</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004963364048561109</v>
+        <v>0.0008424030697228308</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001210816738468629</v>
+        <v>0.000205108876483197</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002427422170942109</v>
+        <v>0.0001684190129141198</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007267794777814198</v>
+        <v>0.0001867639446986584</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0009459496897158371</v>
+        <v>0.001575848914563652</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01532529262928612</v>
+        <v>0.01443634181039877</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000355210644521</v>
+        <v>1.000315197477015</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01597772206424401</v>
+        <v>0.01505092676861474</v>
       </c>
       <c r="P19" t="n">
-        <v>98.71300280978339</v>
+        <v>98.95202605937102</v>
       </c>
       <c r="Q19" t="n">
-        <v>148.6869116293796</v>
+        <v>148.9259348789673</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_20</t>
+          <t>model_22_1_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9997487298228215</v>
+        <v>0.9997285216029497</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9994659814340024</v>
+        <v>0.9990649769370423</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9974201194907106</v>
+        <v>0.9990756639265778</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9993290396670467</v>
+        <v>0.9997484525430148</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986310087511354</v>
+        <v>0.9997869139714963</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002345496809100847</v>
+        <v>0.0002534131671221025</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0004984828906528529</v>
+        <v>0.0008728029865020243</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00121132984637395</v>
+        <v>0.0002394454791231134</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002428618944290482</v>
+        <v>0.0001991329914918352</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000727095870401499</v>
+        <v>0.0002192892353074743</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0009344095410407921</v>
+        <v>0.001748842627274926</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01531501488442256</v>
+        <v>0.01591895621961762</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000354734367781</v>
+        <v>1.000383263619365</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01596700677450375</v>
+        <v>0.01659665914266897</v>
       </c>
       <c r="P20" t="n">
-        <v>98.71568626725049</v>
+        <v>98.56097865923876</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.6895950868467</v>
+        <v>148.534887478835</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_21</t>
+          <t>model_22_1_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9997490476035727</v>
+        <v>0.9996690927224792</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9994638428989217</v>
+        <v>0.9990226491506476</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9974195546515218</v>
+        <v>0.9989144327731432</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9993290374183794</v>
+        <v>0.9996992238040648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986307583147286</v>
+        <v>0.9997476872558466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002342530465277662</v>
+        <v>0.0003088874184149306</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0005004791192799407</v>
+        <v>0.0009123141171263487</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001211595055001021</v>
+        <v>0.0002812117499565923</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002428627083603048</v>
+        <v>0.0002381040316763939</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007272288816806626</v>
+        <v>0.0002596578908164932</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0009237754349127239</v>
+        <v>0.00193994155292753</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0153053273904143</v>
+        <v>0.0175751932682099</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000354285736132</v>
+        <v>1.000467163215323</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01595690686381968</v>
+        <v>0.01832340563130316</v>
       </c>
       <c r="P21" t="n">
-        <v>98.7182172629512</v>
+        <v>98.16506737830869</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.6921260825474</v>
+        <v>148.1389761979049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_22</t>
+          <t>model_22_1_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9997493510595945</v>
+        <v>0.9995959561851042</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9994618501511175</v>
+        <v>0.9989682839286551</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9974194894228592</v>
+        <v>0.998715953732636</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9993291134808537</v>
+        <v>0.9996372948751129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986307554009878</v>
+        <v>0.9996988878201469</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002339697836516374</v>
+        <v>0.0003771571657314568</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0005023392618835134</v>
+        <v>0.0009630616654990099</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001211625681778301</v>
+        <v>0.0003326269335858464</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002428351766632777</v>
+        <v>0.0002871289474115188</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0007272304292207895</v>
+        <v>0.0003098779404986826</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0009140485019220781</v>
+        <v>0.002150940332138002</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01529607085664935</v>
+        <v>0.01942053464072132</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000353857327631</v>
+        <v>1.0005704147975</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01594725626024868</v>
+        <v>0.02024730700642564</v>
       </c>
       <c r="P22" t="n">
-        <v>98.72063716127677</v>
+        <v>97.76569714431888</v>
       </c>
       <c r="Q22" t="n">
-        <v>148.694545980873</v>
+        <v>147.7396059639151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_23</t>
+          <t>model_22_1_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9997496324476418</v>
+        <v>0.9995058605064694</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9994599865446869</v>
+        <v>0.99889904878237</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9974198296858513</v>
+        <v>0.9984731847554397</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9993292190578233</v>
+        <v>0.9995591015434756</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9986309417798244</v>
+        <v>0.9996382584942026</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002337071202609598</v>
+        <v>0.000461257526993884</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0005040788566836036</v>
+        <v>0.001027689635484419</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001211465918286776</v>
+        <v>0.0003955152441608044</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002427969618514721</v>
+        <v>0.0003490292831583749</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0007271314400691239</v>
+        <v>0.0003722722636595896</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009051593129501238</v>
+        <v>0.002384449638795875</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0152874824696861</v>
+        <v>0.02147690683021845</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000353460073917</v>
+        <v>1.000697608696749</v>
       </c>
       <c r="O23" t="n">
-        <v>0.015938302247872</v>
+        <v>0.02239122321730694</v>
       </c>
       <c r="P23" t="n">
-        <v>98.72288369871403</v>
+        <v>97.36310808811352</v>
       </c>
       <c r="Q23" t="n">
-        <v>148.6967925183103</v>
+        <v>147.3370169077097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_1_24</t>
+          <t>model_22_1_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999749917779436</v>
+        <v>0.9993949665886102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9994582712167017</v>
+        <v>0.9988112635486897</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9974207488557375</v>
+        <v>0.998175862034291</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993293545406832</v>
+        <v>0.9994608589846006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9986313942375951</v>
+        <v>0.9995630517689441</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002334407755556647</v>
+        <v>0.0005647721316351091</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0005056800400636389</v>
+        <v>0.001109633297798584</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001211034340966406</v>
+        <v>0.0004725354789722124</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002427479222549828</v>
+        <v>0.0004268012267711224</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0007268911316106945</v>
+        <v>0.0004496683528716674</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0008970425580415864</v>
+        <v>0.00264292720950023</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01527876878402395</v>
+        <v>0.02376493491754415</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000353057252561</v>
+        <v>1.00085416481608</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01592921760257139</v>
+        <v>0.02477665739718117</v>
       </c>
       <c r="P24" t="n">
-        <v>98.72516430180818</v>
+        <v>96.95817643001685</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.6990731214044</v>
+        <v>146.9320852496131</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9997499713348441</v>
+        <v>0.9992592188897079</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9994564772467676</v>
+        <v>0.9987007142908517</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9981626122941777</v>
+        <v>0.9978191397225515</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999509789017053</v>
+        <v>0.9993386171079968</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9990207964926852</v>
+        <v>0.9994711384701582</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002333907839330486</v>
+        <v>0.000691486649924975</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0005073546322509935</v>
+        <v>0.001212826177438744</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0008627076174299973</v>
+        <v>0.0005649429347713963</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001774375654435502</v>
+        <v>0.0005235717958933463</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005200725914367738</v>
+        <v>0.0005442573653323713</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001492802573602906</v>
+        <v>0.002927471986852791</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01527713271307965</v>
+        <v>0.02629613374481076</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000352981644926</v>
+        <v>1.001045808626295</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01592751188069987</v>
+        <v>0.02741561459882843</v>
       </c>
       <c r="P25" t="n">
-        <v>98.72559265007891</v>
+        <v>96.55333342602231</v>
       </c>
       <c r="Q25" t="n">
-        <v>148.6995014696751</v>
+        <v>146.5272422456185</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9997399840464181</v>
+        <v>0.9990926970472263</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9994390524998042</v>
+        <v>0.9985619928480778</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9982201180484255</v>
+        <v>0.9973875436486019</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995123837623714</v>
+        <v>0.9991860782298155</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999047099351599</v>
+        <v>0.9993581488234168</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002427134792874407</v>
+        <v>0.0008469274804175592</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0005236198686832061</v>
+        <v>0.00134231655510063</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0008357069729397525</v>
+        <v>0.0006767461324242653</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001764983672038912</v>
+        <v>0.0006443264379600465</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005061026700718218</v>
+        <v>0.0006605362851921559</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001576430760327737</v>
+        <v>0.003241740107466816</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01557926440135864</v>
+        <v>0.02910201849387013</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000367081346233</v>
+        <v>1.001280898286269</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01624250594044771</v>
+        <v>0.03034095167063742</v>
       </c>
       <c r="P26" t="n">
-        <v>98.64725781577746</v>
+        <v>96.14779097263897</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.6211666353737</v>
+        <v>146.1216997922352</v>
       </c>
     </row>
   </sheetData>
